--- a/RCSFA_RC3_BSLE_DIT_Data_Combined.xlsx
+++ b/RCSFA_RC3_BSLE_DIT_Data_Combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edc05105a1ab0e97/Documents/GitHub/rcsfa-RC3-BSLE-DIT-degradation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="293" documentId="8_{72954858-3515-4FC1-93A5-22BB2B9C4344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09EBD121-56D7-4A1D-8F04-1E325BE1298E}"/>
+  <xr:revisionPtr revIDLastSave="296" documentId="8_{72954858-3515-4FC1-93A5-22BB2B9C4344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E10DECA-0B39-4C05-9650-1674CB44180E}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{8BD17C23-6970-47AA-A4C7-02FE35FDCA71}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8BD17C23-6970-47AA-A4C7-02FE35FDCA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7053,8 +7053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5B0563-B816-4F27-82BF-708BEA88E87D}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7121,7 +7121,7 @@
         <v>3.1859999999999999</v>
       </c>
       <c r="H2" s="3">
-        <f>G2/3.75833*100</f>
+        <f t="shared" ref="H2:H18" si="0">G2/3.75833*100</f>
         <v>84.771693810814909</v>
       </c>
       <c r="I2" s="3">
@@ -7164,14 +7164,14 @@
         <v>5.2530000000000001</v>
       </c>
       <c r="H3" s="3">
-        <f>G3/3.75833*100</f>
+        <f t="shared" si="0"/>
         <v>139.76952529447919</v>
       </c>
       <c r="I3" s="3">
         <v>0.1</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J55" si="0">LN(G3)</f>
+        <f t="shared" ref="J3:J55" si="1">LN(G3)</f>
         <v>1.6587993419718245</v>
       </c>
       <c r="M3" t="s">
@@ -7210,14 +7210,14 @@
         <v>2.8359999999999999</v>
       </c>
       <c r="H4" s="3">
-        <f>G4/3.75833*100</f>
+        <f t="shared" si="0"/>
         <v>75.459046970329908</v>
       </c>
       <c r="I4" s="3">
         <v>0.1</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.042394608669881</v>
       </c>
       <c r="M4" t="s">
@@ -7228,11 +7228,11 @@
         <v>11.045081604490814</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:P4" si="1">LN(2)/O3</f>
+        <f t="shared" ref="O4:P4" si="2">LN(2)/O3</f>
         <v>10.744033133551175</v>
       </c>
       <c r="P4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.079712993941538</v>
       </c>
     </row>
@@ -7256,15 +7256,15 @@
         <v>2.1560000000000001</v>
       </c>
       <c r="H5" s="3">
-        <f>G5/3.75833*100</f>
+        <f t="shared" si="0"/>
         <v>57.365904537387621</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" ref="I3:I55" si="2">100-H5</f>
+        <f t="shared" ref="I5:I54" si="3">100-H5</f>
         <v>42.634095462612379</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.76825465304675078</v>
       </c>
       <c r="M5" t="s">
@@ -7301,15 +7301,15 @@
         <v>1.9570000000000001</v>
       </c>
       <c r="H6" s="3">
-        <f>G6/3.75833*100</f>
+        <f t="shared" si="0"/>
         <v>52.070999619511859</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47.929000380488141</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.6714126884139392</v>
       </c>
     </row>
@@ -7333,15 +7333,15 @@
         <v>2.121</v>
       </c>
       <c r="H7" s="3">
-        <f>G7/3.75833*100</f>
+        <f t="shared" si="0"/>
         <v>56.434639853339121</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43.565360146660879</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.75188767558254543</v>
       </c>
       <c r="M7" t="s">
@@ -7368,15 +7368,15 @@
         <v>1.702</v>
       </c>
       <c r="H8" s="3">
-        <f>G8/3.75833*100</f>
+        <f t="shared" si="0"/>
         <v>45.286071207158493</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54.713928792841507</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.53180403015118238</v>
       </c>
       <c r="M8" cm="1">
@@ -7407,15 +7407,15 @@
         <v>1.7669999999999999</v>
       </c>
       <c r="H9" s="3">
-        <f>G9/3.75833*100</f>
+        <f t="shared" si="0"/>
         <v>47.015562763248568</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52.984437236751432</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.56928319333755928</v>
       </c>
       <c r="M9">
@@ -7445,15 +7445,15 @@
         <v>1.6850000000000001</v>
       </c>
       <c r="H10" s="3">
-        <f>G10/3.75833*100</f>
+        <f t="shared" si="0"/>
         <v>44.833742646334947</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55.166257353665053</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.52176556380432504</v>
       </c>
       <c r="M10">
@@ -7483,15 +7483,15 @@
         <v>1.77</v>
       </c>
       <c r="H11" s="3">
-        <f>G11/3.75833*100</f>
+        <f t="shared" si="0"/>
         <v>47.095385450452731</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52.904614549547269</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5709795465857378</v>
       </c>
       <c r="M11">
@@ -7521,15 +7521,15 @@
         <v>1.7649999999999999</v>
       </c>
       <c r="H12" s="3">
-        <f>G12/3.75833*100</f>
+        <f t="shared" si="0"/>
         <v>46.962347638445792</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>53.037652361554208</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.56815069038526</v>
       </c>
       <c r="M12">
@@ -7559,15 +7559,15 @@
         <v>1.5960000000000001</v>
       </c>
       <c r="H13" s="3">
-        <f>G13/3.75833*100</f>
+        <f t="shared" si="0"/>
         <v>42.465669592611619</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>57.534330407388381</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.46750049902761709</v>
       </c>
       <c r="M13" t="s">
@@ -7594,15 +7594,15 @@
         <v>1.218</v>
       </c>
       <c r="H14" s="3">
-        <f>G14/3.75833*100</f>
+        <f t="shared" si="0"/>
         <v>32.408011004887811</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>67.591988995112189</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19721016928770527</v>
       </c>
       <c r="M14" cm="1">
@@ -7633,15 +7633,15 @@
         <v>1.23</v>
       </c>
       <c r="H15" s="3">
-        <f>G15/3.75833*100</f>
+        <f t="shared" si="0"/>
         <v>32.727301753704438</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>67.272698246295562</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20701416938432612</v>
       </c>
       <c r="M15">
@@ -7671,15 +7671,15 @@
         <v>1.236</v>
       </c>
       <c r="H16" s="3">
-        <f>G16/3.75833*100</f>
+        <f t="shared" si="0"/>
         <v>32.886947128112752</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>67.113052871887248</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21188035903549901</v>
       </c>
       <c r="M16">
@@ -7709,15 +7709,15 @@
         <v>1.4</v>
       </c>
       <c r="H17" s="3">
-        <f>G17/3.75833*100</f>
+        <f t="shared" si="0"/>
         <v>37.250587361940006</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>62.749412638059994</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33647223662121289</v>
       </c>
       <c r="M17">
@@ -7747,15 +7747,15 @@
         <v>1.208</v>
       </c>
       <c r="H18" s="3">
-        <f>G18/3.75833*100</f>
+        <f t="shared" si="0"/>
         <v>32.141935380873953</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>67.858064619126054</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18896609951262316</v>
       </c>
       <c r="M18">
@@ -7785,7 +7785,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
       <c r="M19" t="s">
@@ -7812,14 +7812,14 @@
         <v>5.5149999999999997</v>
       </c>
       <c r="H20" s="3">
-        <f>G20/5.212*100</f>
+        <f t="shared" ref="H20:H37" si="4">G20/5.212*100</f>
         <v>105.81350729086722</v>
       </c>
       <c r="I20" s="3">
         <v>0.1</v>
       </c>
       <c r="J20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7074716527054656</v>
       </c>
       <c r="M20" cm="1">
@@ -7850,14 +7850,14 @@
         <v>5.1470000000000002</v>
       </c>
       <c r="H21" s="3">
-        <f>G21/5.212*100</f>
+        <f t="shared" si="4"/>
         <v>98.752877973906379</v>
       </c>
       <c r="I21" s="3">
         <v>0.1</v>
       </c>
       <c r="J21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6384140206706175</v>
       </c>
       <c r="M21">
@@ -7887,14 +7887,14 @@
         <v>4.9740000000000002</v>
       </c>
       <c r="H22" s="3">
-        <f>G22/5.212*100</f>
+        <f t="shared" si="4"/>
         <v>95.433614735226413</v>
       </c>
       <c r="I22" s="3">
         <v>0.1</v>
       </c>
       <c r="J22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6042243453812131</v>
       </c>
       <c r="M22">
@@ -7924,15 +7924,15 @@
         <v>3.242</v>
       </c>
       <c r="H23" s="3">
-        <f>G23/5.212*100</f>
+        <f t="shared" si="4"/>
         <v>62.202609363008442</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.797390636991558</v>
       </c>
       <c r="J23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1761904233134843</v>
       </c>
       <c r="M23">
@@ -7962,15 +7962,15 @@
         <v>3.254</v>
       </c>
       <c r="H24" s="3">
-        <f>G24/5.212*100</f>
+        <f t="shared" si="4"/>
         <v>62.432847275518036</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.567152724481964</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.179885008796846</v>
       </c>
       <c r="M24">
@@ -8000,15 +8000,15 @@
         <v>3.5459999999999998</v>
       </c>
       <c r="H25" s="3">
-        <f>G25/5.212*100</f>
+        <f t="shared" si="4"/>
         <v>68.035303146584809</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31.964696853415191</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2658202076520162</v>
       </c>
     </row>
@@ -8032,15 +8032,15 @@
         <v>2.5750000000000002</v>
       </c>
       <c r="H26" s="3">
-        <f>G26/5.212*100</f>
+        <f t="shared" si="4"/>
         <v>49.405218726016891</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50.594781273983109</v>
       </c>
       <c r="J26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9458495341156995</v>
       </c>
     </row>
@@ -8064,15 +8064,15 @@
         <v>2.7290000000000001</v>
       </c>
       <c r="H27" s="3">
-        <f>G27/5.212*100</f>
+        <f t="shared" si="4"/>
         <v>52.359938603223334</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47.640061396776666</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0039352417262015</v>
       </c>
     </row>
@@ -8096,15 +8096,15 @@
         <v>2.7360000000000002</v>
       </c>
       <c r="H28" s="3">
-        <f>G28/5.212*100</f>
+        <f t="shared" si="4"/>
         <v>52.49424405218727</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47.50575594781273</v>
       </c>
       <c r="J28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0064969997603042</v>
       </c>
     </row>
@@ -8128,15 +8128,15 @@
         <v>2.4769999999999999</v>
       </c>
       <c r="H29" s="3">
-        <f>G29/5.212*100</f>
+        <f t="shared" si="4"/>
         <v>47.524942440521869</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52.475057559478131</v>
       </c>
       <c r="J29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.90704815050722243</v>
       </c>
     </row>
@@ -8160,15 +8160,15 @@
         <v>2.4350000000000001</v>
       </c>
       <c r="H30" s="3">
-        <f>G30/5.212*100</f>
+        <f t="shared" si="4"/>
         <v>46.719109746738305</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>53.280890253261695</v>
       </c>
       <c r="J30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.88994675653455313</v>
       </c>
     </row>
@@ -8192,15 +8192,15 @@
         <v>2.3119999999999998</v>
       </c>
       <c r="H31" s="3">
-        <f>G31/5.212*100</f>
+        <f t="shared" si="4"/>
         <v>44.359171143514963</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55.640828856485037</v>
       </c>
       <c r="J31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.83811295081013093</v>
       </c>
     </row>
@@ -8224,15 +8224,15 @@
         <v>1.915</v>
       </c>
       <c r="H32" s="3">
-        <f>G32/5.212*100</f>
+        <f t="shared" si="4"/>
         <v>36.742133537989261</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>63.257866462010739</v>
       </c>
       <c r="J32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.64971762263260935</v>
       </c>
     </row>
@@ -8256,15 +8256,15 @@
         <v>1.8819999999999999</v>
       </c>
       <c r="H33" s="3">
-        <f>G33/5.212*100</f>
+        <f t="shared" si="4"/>
         <v>36.108979278587874</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>63.891020721412126</v>
       </c>
       <c r="J33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.63233504116318784</v>
       </c>
     </row>
@@ -8288,15 +8288,15 @@
         <v>1.948</v>
       </c>
       <c r="H34" s="3">
-        <f>G34/5.212*100</f>
+        <f t="shared" si="4"/>
         <v>37.375287797390641</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>62.624712202609359</v>
       </c>
       <c r="J34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.66680320522034331</v>
       </c>
     </row>
@@ -8320,15 +8320,15 @@
         <v>1.907</v>
       </c>
       <c r="H35" s="3">
-        <f>G35/5.212*100</f>
+        <f t="shared" si="4"/>
         <v>36.588641596316194</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>63.411358403683806</v>
       </c>
       <c r="J35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.64553132661828205</v>
       </c>
     </row>
@@ -8352,15 +8352,15 @@
         <v>1.73</v>
       </c>
       <c r="H36" s="3">
-        <f>G36/5.212*100</f>
+        <f t="shared" si="4"/>
         <v>33.192632386799694</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>66.807367613200313</v>
       </c>
       <c r="J36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5481214085096876</v>
       </c>
     </row>
@@ -8384,15 +8384,15 @@
         <v>1.7669999999999999</v>
       </c>
       <c r="H37" s="3">
-        <f>G37/5.212*100</f>
+        <f t="shared" si="4"/>
         <v>33.902532617037608</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>66.097467382962392</v>
       </c>
       <c r="J37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.56928319333755928</v>
       </c>
     </row>
@@ -8416,14 +8416,14 @@
         <v>5.1849999999999996</v>
       </c>
       <c r="H38" s="3">
-        <f>G38/5.234*100</f>
+        <f t="shared" ref="H38:H54" si="5">G38/5.234*100</f>
         <v>99.063813526939242</v>
       </c>
       <c r="I38" s="3">
         <v>0.1</v>
       </c>
       <c r="J38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6457698416814905</v>
       </c>
     </row>
@@ -8447,14 +8447,14 @@
         <v>5.3049999999999997</v>
       </c>
       <c r="H39" s="3">
-        <f>G39/5.234*100</f>
+        <f t="shared" si="5"/>
         <v>101.35651509361865</v>
       </c>
       <c r="I39" s="3">
         <v>0.1</v>
       </c>
       <c r="J39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6686497720659463</v>
       </c>
     </row>
@@ -8478,14 +8478,14 @@
         <v>5.2119999999999997</v>
       </c>
       <c r="H40" s="3">
-        <f>G40/5.234*100</f>
+        <f t="shared" si="5"/>
         <v>99.579671379442104</v>
       </c>
       <c r="I40" s="3">
         <v>0.1</v>
       </c>
       <c r="J40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6509636592625987</v>
       </c>
     </row>
@@ -8509,15 +8509,15 @@
         <v>3.5609999999999999</v>
       </c>
       <c r="H41" s="3">
-        <f>G41/5.234*100</f>
+        <f t="shared" si="5"/>
         <v>68.035918991211304</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31.964081008788696</v>
       </c>
       <c r="J41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2700414042956407</v>
       </c>
     </row>
@@ -8541,15 +8541,15 @@
         <v>3.8580000000000001</v>
       </c>
       <c r="H42" s="3">
-        <f>G42/5.234*100</f>
+        <f t="shared" si="5"/>
         <v>73.710355368742839</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.289644631257161</v>
       </c>
       <c r="J42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3501489144835375</v>
       </c>
     </row>
@@ -8573,15 +8573,15 @@
         <v>4.2949999999999999</v>
       </c>
       <c r="H43" s="3">
-        <f>G43/5.234*100</f>
+        <f t="shared" si="5"/>
         <v>82.059610240733662</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.940389759266338</v>
       </c>
       <c r="J43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4574515554362186</v>
       </c>
     </row>
@@ -8605,15 +8605,15 @@
         <v>3.1709999999999998</v>
       </c>
       <c r="H44" s="3">
-        <f>G44/5.234*100</f>
+        <f t="shared" si="5"/>
         <v>60.58463889950324</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39.41536110049676</v>
       </c>
       <c r="J44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1540469955562103</v>
       </c>
     </row>
@@ -8637,15 +8637,15 @@
         <v>3.1930000000000001</v>
       </c>
       <c r="H45" s="3">
-        <f>G45/5.234*100</f>
+        <f t="shared" si="5"/>
         <v>61.004967520061136</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38.995032479938864</v>
       </c>
       <c r="J45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1609609137326451</v>
       </c>
     </row>
@@ -8669,15 +8669,15 @@
         <v>3.1019999999999999</v>
       </c>
       <c r="H46" s="3">
-        <f>G46/5.234*100</f>
+        <f t="shared" si="5"/>
         <v>59.266335498662592</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40.733664501337408</v>
       </c>
       <c r="J46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.132047064754347</v>
       </c>
     </row>
@@ -8701,15 +8701,15 @@
         <v>2.5870000000000002</v>
       </c>
       <c r="H47" s="3">
-        <f>G47/5.234*100</f>
+        <f t="shared" si="5"/>
         <v>49.426824608330158</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50.573175391669842</v>
       </c>
       <c r="J47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.95049890320389219</v>
       </c>
     </row>
@@ -8733,15 +8733,15 @@
         <v>2.5350000000000001</v>
       </c>
       <c r="H48" s="3">
-        <f>G48/5.234*100</f>
+        <f t="shared" si="5"/>
         <v>48.433320596102405</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51.566679403897595</v>
       </c>
       <c r="J48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9301936370431465</v>
       </c>
     </row>
@@ -8765,15 +8765,15 @@
         <v>2.5009999999999999</v>
       </c>
       <c r="H49" s="3">
-        <f>G49/5.234*100</f>
+        <f t="shared" si="5"/>
         <v>47.783721818876572</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52.216278181123428</v>
       </c>
       <c r="J49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.91669065189548193</v>
       </c>
     </row>
@@ -8797,15 +8797,15 @@
         <v>2.3220000000000001</v>
       </c>
       <c r="H50" s="3">
-        <f>G50/5.234*100</f>
+        <f t="shared" si="5"/>
         <v>44.363775315246471</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55.636224684753529</v>
       </c>
       <c r="J50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.84242888327569976</v>
       </c>
     </row>
@@ -8829,15 +8829,15 @@
         <v>2.3879999999999999</v>
       </c>
       <c r="H51" s="3">
-        <f>G51/5.234*100</f>
+        <f t="shared" si="5"/>
         <v>45.624761176920138</v>
       </c>
       <c r="I51" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54.375238823079862</v>
       </c>
       <c r="J51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87045619553035558</v>
       </c>
     </row>
@@ -8861,15 +8861,15 @@
         <v>2.254</v>
       </c>
       <c r="H52" s="3">
-        <f>G52/5.234*100</f>
+        <f t="shared" si="5"/>
         <v>43.064577760794805</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56.935422239205195</v>
       </c>
       <c r="J52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.81270641561758461</v>
       </c>
     </row>
@@ -8893,15 +8893,15 @@
         <v>2.3380000000000001</v>
       </c>
       <c r="H53" s="3">
-        <f>G53/5.234*100</f>
+        <f t="shared" si="5"/>
         <v>44.669468857470392</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55.330531142529608</v>
       </c>
       <c r="J53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.8492958630498767</v>
       </c>
     </row>
@@ -8925,15 +8925,15 @@
         <v>2.2130000000000001</v>
       </c>
       <c r="H54" s="3">
-        <f>G54/5.234*100</f>
+        <f t="shared" si="5"/>
         <v>42.281238058846007</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>57.718761941153993</v>
       </c>
       <c r="J54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.79434906106891268</v>
       </c>
     </row>
@@ -8957,7 +8957,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
     </row>

--- a/RCSFA_RC3_BSLE_DIT_Data_Combined.xlsx
+++ b/RCSFA_RC3_BSLE_DIT_Data_Combined.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="296" documentId="8_{72954858-3515-4FC1-93A5-22BB2B9C4344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E10DECA-0B39-4C05-9650-1674CB44180E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8BD17C23-6970-47AA-A4C7-02FE35FDCA71}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8BD17C23-6970-47AA-A4C7-02FE35FDCA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4078,8 +4078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85712D0-0BE0-4097-8A04-E992F983ED95}">
   <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7053,7 +7053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5B0563-B816-4F27-82BF-708BEA88E87D}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
